--- a/Excel Data/chequeBookManagement.xlsx
+++ b/Excel Data/chequeBookManagement.xlsx
@@ -393,7 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -434,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +519,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
